--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\seleniumwebdriver\Opencartv1\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7794E2A-8CD8-43E6-842C-090887618644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED3BA19-3E89-4BEA-B043-A14CE5B5FB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>username</t>
   </si>
@@ -36,9 +36,6 @@
     <t>res</t>
   </si>
   <si>
-    <t>lakshmi@yahoo.com</t>
-  </si>
-  <si>
     <t>Lakshmi</t>
   </si>
   <si>
@@ -48,9 +45,6 @@
     <t>laksh@yahoo.com</t>
   </si>
   <si>
-    <t>Laxmi</t>
-  </si>
-  <si>
     <t>Invalid</t>
   </si>
   <si>
@@ -58,9 +52,6 @@
   </si>
   <si>
     <t>test</t>
-  </si>
-  <si>
-    <t>tt</t>
   </si>
 </sst>
 </file>
@@ -141,7 +132,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -150,9 +141,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -473,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884FCF78-0A3E-40BF-9E26-11C478AF56E2}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,74 +486,34 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
-        <v>9</v>
+      <c r="A2" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{D3BE7519-95C3-4ACD-9AB4-5385C9508082}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{8456409A-CACC-4B7E-B78E-75E713148E0E}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{5E52A498-5B14-4BDC-BBF1-05425B8AC197}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{94E9D5A6-98A1-4A25-BDDE-C5B20EDA887E}"/>
-    <hyperlink ref="B2" r:id="rId5" display="test@123" xr:uid="{968262D0-AE14-41EF-AB8A-08B3F886E797}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{94E9D5A6-98A1-4A25-BDDE-C5B20EDA887E}"/>
+    <hyperlink ref="B2" r:id="rId3" display="test@123" xr:uid="{968262D0-AE14-41EF-AB8A-08B3F886E797}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>